--- a/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,206 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r587264053-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109412</t>
+  </si>
+  <si>
+    <t>587264053</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Welcome to the Marriott Family</t>
+  </si>
+  <si>
+    <t>I am a Marriott person and have been for the last 35 years.As a Marriott person, I am accustomed to Marriott consistency, efficiency in check-in, comfortable rooms and great service.This was pretty much my experience when I checked-in to this property yesterday.What struck me about this property is that the Management Team is extremely visible and engaging with their customers. I met a few of them during my one night stay.Tiffany on the Sales Team approached me during my departure wanting to hear about my experience at the hotel. I told her I had a very good stay and looked forward to returning when I am back in the area.I am sure it will not take long before the reviews of this property reach the excellent level.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am a Marriott person and have been for the last 35 years.As a Marriott person, I am accustomed to Marriott consistency, efficiency in check-in, comfortable rooms and great service.This was pretty much my experience when I checked-in to this property yesterday.What struck me about this property is that the Management Team is extremely visible and engaging with their customers. I met a few of them during my one night stay.Tiffany on the Sales Team approached me during my departure wanting to hear about my experience at the hotel. I told her I had a very good stay and looked forward to returning when I am back in the area.I am sure it will not take long before the reviews of this property reach the excellent level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r586030550-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>586030550</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Convenient hotel to Addison/Dallas area</t>
+  </si>
+  <si>
+    <t>If you are a shopper or in Dallas for fun, this hotel is very convenient, safe and near most attractions.  Rooms are good nice as is the bar area.  Hotel staff is very helpful and parking is safe as well.  Stayed at this hotel atleast 8 times in last 15 years.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r585668997-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585668997</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Oops, I gave you keys to an occupied room....</t>
+  </si>
+  <si>
+    <t>I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.
+	1. Arrived at 8:55 PM after a mobile check and room not ready!!
+	2. Take elevator to room after about 15 minutes.
+	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.
+	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 
+	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.
+	6. Take elevator to gym.   Work out for about an hour.
+	7. Take elevator to Front desk to get key to new room.
+	8. Take elevator to 5th floor to get my stuff, room key does not work.  
+	9. Take elevator to front desk to get another key.
+	10. Take elevator back up to 5th floor get my stuff.
+	11. Take elevator to 7th floor to new room.
+	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  
+	13. Take elevator back to front...I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.	1. Arrived at 8:55 PM after a mobile check and room not ready!!	2. Take elevator to room after about 15 minutes.	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.	6. Take elevator to gym.   Work out for about an hour.	7. Take elevator to Front desk to get key to new room.	8. Take elevator to 5th floor to get my stuff, room key does not work.  	9. Take elevator to front desk to get another key.	10. Take elevator back up to 5th floor get my stuff.	11. Take elevator to 7th floor to new room.	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  	13. Take elevator back to front desk, seems like they already knew I was coming back.	14. Take elevator back to 5th floor with broken TV because I didn't want to wait another 30 minutes.  	15. Spend fifteen minutes typing up my experience because I was upset about the run around and leadership should know about front desk giving key to an occupied room.It's now 11:00 PM…  Good night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.
+	1. Arrived at 8:55 PM after a mobile check and room not ready!!
+	2. Take elevator to room after about 15 minutes.
+	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.
+	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 
+	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.
+	6. Take elevator to gym.   Work out for about an hour.
+	7. Take elevator to Front desk to get key to new room.
+	8. Take elevator to 5th floor to get my stuff, room key does not work.  
+	9. Take elevator to front desk to get another key.
+	10. Take elevator back up to 5th floor get my stuff.
+	11. Take elevator to 7th floor to new room.
+	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  
+	13. Take elevator back to front...I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.	1. Arrived at 8:55 PM after a mobile check and room not ready!!	2. Take elevator to room after about 15 minutes.	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.	6. Take elevator to gym.   Work out for about an hour.	7. Take elevator to Front desk to get key to new room.	8. Take elevator to 5th floor to get my stuff, room key does not work.  	9. Take elevator to front desk to get another key.	10. Take elevator back up to 5th floor get my stuff.	11. Take elevator to 7th floor to new room.	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  	13. Take elevator back to front desk, seems like they already knew I was coming back.	14. Take elevator back to 5th floor with broken TV because I didn't want to wait another 30 minutes.  	15. Spend fifteen minutes typing up my experience because I was upset about the run around and leadership should know about front desk giving key to an occupied room.It's now 11:00 PM…  Good night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r580108758-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>580108758</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Recent Takeover-Needs serious help</t>
+  </si>
+  <si>
+    <t>This recently got re-flagged to a Renaissance.  The previous ownership did not keep up with room maintenance, food service trends or anything else that would make this hotel enjoyable.  Rooms are rundown, AC spotty, plumbing gross and overall not worth it when there are so many other options within the area.  They are redoing the public spaces but that is window dressing on a pig of a hotel.  Maybe in another year?</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r579748294-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>579748294</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel with dated rooms.</t>
+  </si>
+  <si>
+    <t>Renaissance Dallas Addison Hotel held the function we participated in and it was a great venue for it . The ballroom and auditorium are very nice and the event organization very good and smooth. The building, reception, atrium, common areas are impressive and classy. But we all agreed the rooms were decrescendo...a bit dated and gray. Hotel we heard is in transition and expected to improve.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r578845207-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>578845207</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>You can't really do worse</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights and 3 other hotels in other cities for one night each on this trip. The other hotels were 2 star, just to get some sleep along the way. I would stay at any of those other 3 again. I wouldn't stay here again under any circumstances. Go anywhere else and you will be happier. If you do find yourself in this hotel, expect additional unwarranted charges on your credit card. And once you find those charges call their listed phone number and ask for the accounting department, any other approach will just waste your time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r574014280-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>574014280</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>DO NOT stay there - terrible customer service - hotel is filthy</t>
+  </si>
+  <si>
+    <t>Was a better hotel until Renaissance purchase them a few months ago.  Understaffed now, rooms not clean, they gave me a key and when I got to the room, someone else was in the room.  Front desk blamed new ownership -</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r573601929-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>573601929</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>This was the Intercontinental Dallas not up to their standards</t>
+  </si>
+  <si>
+    <t>This hotel was clean.  The lobby lounge was nice.  The rooms were a bit dated.  The elevators were slow.  The only food I had was catered breakfasts, lunch and a cocktail hour with small bites.  The breakfast was lame.  The lunch was what I'd expect at a cheaper hotel as was the cocktail small bites.  I guess if it was called Renaissance I would have thought it met the chain's standards.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r569203840-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>569203840</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>WEAK - Not Marriott Standard</t>
+  </si>
+  <si>
+    <t>Marriott just bought this property.  It is NOT up to typical Marriott standards.  I realize it's a brand new acquisition, but even then, the hotel needs a lot of work.Upon arrival, I hand my "Marriott Rewards" card to the hotel clerk, along with my credit card.  She proceeds to ask me, in all seriousness, "Are you a Marriott Rewards member?"  Seriously?  DO YOU READ?This is not a "horrible" hotel, but I would rather stay somewhere else. The Gym needs updating.A few positives:  Parking is good, and included a FREE option.  Showers are high pressure, and easily get hot.  The AC units in the rooms actually work well.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +845,555 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Pedro P</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I am a Marriott person and have been for the last 35 years.As a Marriott person, I am accustomed to Marriott consistency, efficiency in check-in, comfortable rooms and great service.This was pretty much my experience when I checked-in to this property yesterday.What struck me about this property is that the Management Team is extremely visible and engaging with their customers. I met a few of them during my one night stay.Tiffany on the Sales Team approached me during my departure wanting to hear about my experience at the hotel. I told her I had a very good stay and looked forward to returning when I am back in the area.I am sure it will not take long before the reviews of this property reach the excellent level.More</t>
   </si>
   <si>
+    <t>nolanherefords</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r586030550-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>VARays</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r585668997-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
@@ -245,6 +254,9 @@
 	13. Take elevator back to front...I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.	1. Arrived at 8:55 PM after a mobile check and room not ready!!	2. Take elevator to room after about 15 minutes.	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.	6. Take elevator to gym.   Work out for about an hour.	7. Take elevator to Front desk to get key to new room.	8. Take elevator to 5th floor to get my stuff, room key does not work.  	9. Take elevator to front desk to get another key.	10. Take elevator back up to 5th floor get my stuff.	11. Take elevator to 7th floor to new room.	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  	13. Take elevator back to front desk, seems like they already knew I was coming back.	14. Take elevator back to 5th floor with broken TV because I didn't want to wait another 30 minutes.  	15. Spend fifteen minutes typing up my experience because I was upset about the run around and leadership should know about front desk giving key to an occupied room.It's now 11:00 PM…  Good night.More</t>
   </si>
   <si>
+    <t>Craig D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r580108758-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -263,6 +275,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>podrozniczka60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r579748294-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -284,6 +299,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>joshstevens91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r578845207-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -302,6 +320,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>scottboring</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r574014280-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
     <t>Was a better hotel until Renaissance purchase them a few months ago.  Understaffed now, rooms not clean, they gave me a key and when I got to the room, someone else was in the room.  Front desk blamed new ownership -</t>
   </si>
   <si>
+    <t>Stephen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r573601929-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
   </si>
   <si>
     <t>This hotel was clean.  The lobby lounge was nice.  The rooms were a bit dated.  The elevators were slow.  The only food I had was catered breakfasts, lunch and a cocktail hour with small bites.  The breakfast was lame.  The lunch was what I'd expect at a cheaper hotel as was the cocktail small bites.  I guess if it was called Renaissance I would have thought it met the chain's standards.</t>
+  </si>
+  <si>
+    <t>theNamssob</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r569203840-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
@@ -849,43 +876,47 @@
       <c r="A2" t="n">
         <v>10194</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162735</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -903,50 +934,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10194</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162736</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -964,50 +999,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10194</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162737</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1025,50 +1064,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10194</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>17414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1088,50 +1131,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10194</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162738</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1145,50 +1192,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10194</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1202,50 +1253,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10194</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162740</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1265,50 +1320,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10194</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>31643</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1328,50 +1387,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10194</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>162741</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1391,7 +1454,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_452.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>STR#</t>
   </si>
@@ -147,45 +147,372 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Pedro P</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r607170070-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109412</t>
+  </si>
+  <si>
+    <t>607170070</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>How can this be part of the Marriott chain?</t>
+  </si>
+  <si>
+    <t>As can be seen in my previous reviews I am  very loyal to the Marriott brand. This was one of my worst experiences. I’m only giving two stars due to the friendly staff. The room itself smelled of mold my coworker finally had to shut down his ac in the 90 degrees heat due to the smell in his room.  As others mentioned the tubs don’t drain, when taking a shower I tried to manipulate the drain which just broke off in my hand. The toilet barely flushed. As others mention the elevators are downright scary they would arrive at a floor but it would take a few stressful minutes for the doors to open. The gym was a joke w treadmills that must be 10+ years old and minimal other equipment for a hotel this size. I was so disappointed as this is close to my company’s sister office and I was hoping to stay again but until they complete the room and common area upgrades I’m not sure I will. I had to send all my clothes to the dry cleaners to hopefully get rid of the smells. I just feel so bad for the hard working staff! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>As can be seen in my previous reviews I am  very loyal to the Marriott brand. This was one of my worst experiences. I’m only giving two stars due to the friendly staff. The room itself smelled of mold my coworker finally had to shut down his ac in the 90 degrees heat due to the smell in his room.  As others mentioned the tubs don’t drain, when taking a shower I tried to manipulate the drain which just broke off in my hand. The toilet barely flushed. As others mention the elevators are downright scary they would arrive at a floor but it would take a few stressful minutes for the doors to open. The gym was a joke w treadmills that must be 10+ years old and minimal other equipment for a hotel this size. I was so disappointed as this is close to my company’s sister office and I was hoping to stay again but until they complete the room and common area upgrades I’m not sure I will. I had to send all my clothes to the dry cleaners to hopefully get rid of the smells. I just feel so bad for the hard working staff! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r600481273-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>600481273</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Hotel sold a few months ago to Marriott..Great location.20 mins. from DFW..Staff is well coached and very pleasant..Food was very good and the rooms have been upgraded.Only 10 minutes from the Galleria which is a very upscale shopping plaza..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Hotel sold a few months ago to Marriott..Great location.20 mins. from DFW..Staff is well coached and very pleasant..Food was very good and the rooms have been upgraded.Only 10 minutes from the Galleria which is a very upscale shopping plaza..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r598992901-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598992901</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>No service</t>
+  </si>
+  <si>
+    <t>Im not sure what they get paid for at this bar...but you have to get off your butt and place your orders at front. Pick it up yourself and all. Boring, no customer service. I had better service at a buffet than this. Whose got time for this? You are in addison, go to another place near by with customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Im not sure what they get paid for at this bar...but you have to get off your butt and place your orders at front. Pick it up yourself and all. Boring, no customer service. I had better service at a buffet than this. Whose got time for this? You are in addison, go to another place near by with customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r598304584-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598304584</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Rooms in disrepair</t>
+  </si>
+  <si>
+    <t>First off, food that was served was excellent.  However the hotel rooms, I had 2, were horrible.  The tub/shower felt greasy on my feet.  The drain did not drain.  I stood in 6 inches of water.  Had to turn off water to let drain then continue bathing.  Towels could have been used as sandpaper!  Trash not emptied.  See pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off, food that was served was excellent.  However the hotel rooms, I had 2, were horrible.  The tub/shower felt greasy on my feet.  The drain did not drain.  I stood in 6 inches of water.  Had to turn off water to let drain then continue bathing.  Towels could have been used as sandpaper!  Trash not emptied.  See pictures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r597162152-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597162152</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Service</t>
+  </si>
+  <si>
+    <t>This hotel staff are on point. Great service and super friendly. Hotel is clean and good location. Price very reasonable. Book directly with hotel to get best rates. Gets busy during conference season so book in advanceMoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>This hotel staff are on point. Great service and super friendly. Hotel is clean and good location. Price very reasonable. Book directly with hotel to get best rates. Gets busy during conference season so book in advanceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r593534818-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>593534818</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Kaboom Town Room package</t>
+  </si>
+  <si>
+    <t>The Kaboom Town package was a great rate including the room, guaranteed park entrance, coupons, and voucher for concessions on the park grounds. It only took us about 8 minutes to walk to the park from the hotel. The front desk staff and valet staff were all very friendly and helpful. We had disappointing appetizers at the bar after the fireworks show. The food is definitely over priced for the quality, taste, and portions. I was surprised to learn that only one person was on the housekeeping staff overnight. We request our room to be refreshed before leaving for the park around 5:30. Upon our return, no one had been to our room. While we were at the bar we request service again, but were informed there was only one person on duty and they may not make it to our room tonight. They delivered towels, but did not remake the bed or refill the soaps and other items. This hotel was definitely worth avoiding the traffic and chaos of trying to get out of Addison after the fireworks. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>The Kaboom Town package was a great rate including the room, guaranteed park entrance, coupons, and voucher for concessions on the park grounds. It only took us about 8 minutes to walk to the park from the hotel. The front desk staff and valet staff were all very friendly and helpful. We had disappointing appetizers at the bar after the fireworks show. The food is definitely over priced for the quality, taste, and portions. I was surprised to learn that only one person was on the housekeeping staff overnight. We request our room to be refreshed before leaving for the park around 5:30. Upon our return, no one had been to our room. While we were at the bar we request service again, but were informed there was only one person on duty and they may not make it to our room tonight. They delivered towels, but did not remake the bed or refill the soaps and other items. This hotel was definitely worth avoiding the traffic and chaos of trying to get out of Addison after the fireworks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r593348025-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>593348025</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Fourth of July Disaster</t>
+  </si>
+  <si>
+    <t>Hoodwinked to think a room had a 'view' of fireworks.  Room had a mildew smell, was dated, exposed carpet nails and only had a view of the fireworks if you pressed your head against the window.  Time for a full scale renovation and a buyers beware for the next Kaboom Town. Front desk and Valet personnel were terrific.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hoodwinked to think a room had a 'view' of fireworks.  Room had a mildew smell, was dated, exposed carpet nails and only had a view of the fireworks if you pressed your head against the window.  Time for a full scale renovation and a buyers beware for the next Kaboom Town. Front desk and Valet personnel were terrific.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r592536290-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>592536290</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Hot as Hades!!! Horrible!!</t>
+  </si>
+  <si>
+    <t>We were there for a conference with over 1200 people in attendance &amp; only one elevator out of 6 were working. The AC in the hallways, elevators, &amp; some of the conference rooms were NOT working which made attending some of the conference presentations &amp; exhibits very uncomfortable, to say the least.There was no fridge in the room, if you wanted one it was an additional $15 a day!! The sink &amp; the tub we’re not draining properly. Taking a shower with the water up to your ankles was unacceptable!! The bed was at least comfortable.The lobby bar/lounge area was very nice, but very expensive.Giving 2 stars because the front desk staff were accommodating &amp; friendly. We booked our room when they were still the InterContinental Dallas (6mo in advance), so when we called to check our reservation a few days before we were arriving they didn’t have our reservation. They said that we would figure it out &amp; definitely have a room for us. When we arrived we had no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>We were there for a conference with over 1200 people in attendance &amp; only one elevator out of 6 were working. The AC in the hallways, elevators, &amp; some of the conference rooms were NOT working which made attending some of the conference presentations &amp; exhibits very uncomfortable, to say the least.There was no fridge in the room, if you wanted one it was an additional $15 a day!! The sink &amp; the tub we’re not draining properly. Taking a shower with the water up to your ankles was unacceptable!! The bed was at least comfortable.The lobby bar/lounge area was very nice, but very expensive.Giving 2 stars because the front desk staff were accommodating &amp; friendly. We booked our room when they were still the InterContinental Dallas (6mo in advance), so when we called to check our reservation a few days before we were arriving they didn’t have our reservation. They said that we would figure it out &amp; definitely have a room for us. When we arrived we had no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r591736002-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>591736002</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>HAS BEEN - WAS THERE ONCE</t>
+  </si>
+  <si>
+    <t>This hotel is VERY outdated.  There are no "85 flavors of tequila at the bar"... there are barely 3 brands of tequila.  The breakfast is not complimentary and there are no "awesome views of the city".  I believe in the day, this was an awesome hotel, but Marriott is neglecting this one for sure.  Everything in it reminds you of the 60's or 70's.  The staff is nice but all from different countries.  The rooms are clean but outdated and moldy smelling.  I do NOT recommend this hotel for a convention or family vacation, I believe you would be very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is VERY outdated.  There are no "85 flavors of tequila at the bar"... there are barely 3 brands of tequila.  The breakfast is not complimentary and there are no "awesome views of the city".  I believe in the day, this was an awesome hotel, but Marriott is neglecting this one for sure.  Everything in it reminds you of the 60's or 70's.  The staff is nice but all from different countries.  The rooms are clean but outdated and moldy smelling.  I do NOT recommend this hotel for a convention or family vacation, I believe you would be very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r590777215-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>590777215</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Outdated furniture but courteous staff</t>
+  </si>
+  <si>
+    <t>Surprised that Marriott owns this property. The hotel is not that old but has not been kept that well. The Bellperson, front desk and food delivery people were all friendly but the owners seem very frugal and unwilling to spend more on the upkeep of the property. There is a decent Starbucks on the first floor and many nice restaurants in the vicinity, so we could survive; otherwise, the hotel food is, meh. We got the best possible two story suit on the 16th floor (top) and it was reasonably clean but the carpets did not have padding and were of poor quality. The furniture was also not comfortable and sunk too deep. The bed was lumpy and soft in different places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Surprised that Marriott owns this property. The hotel is not that old but has not been kept that well. The Bellperson, front desk and food delivery people were all friendly but the owners seem very frugal and unwilling to spend more on the upkeep of the property. There is a decent Starbucks on the first floor and many nice restaurants in the vicinity, so we could survive; otherwise, the hotel food is, meh. We got the best possible two story suit on the 16th floor (top) and it was reasonably clean but the carpets did not have padding and were of poor quality. The furniture was also not comfortable and sunk too deep. The bed was lumpy and soft in different places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r590619235-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>590619235</t>
+  </si>
+  <si>
+    <t>Clean and Comfy</t>
+  </si>
+  <si>
+    <t>I came to this hotel because my company had a conference here. My room was clean and comfortable. I had no issues with my room. I wished that the Starbucks in the lobby had something more substantial than muffins and pastries. Other than that, the hotel satisfied my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>TeamMarriott, General Manager at Renaissance Dallas Addison Hotel, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>I came to this hotel because my company had a conference here. My room was clean and comfortable. I had no issues with my room. I wished that the Starbucks in the lobby had something more substantial than muffins and pastries. Other than that, the hotel satisfied my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r589022634-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589022634</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointing </t>
+  </si>
+  <si>
+    <t>Horrible conditions, don’t let the lobby fool you. The rooms are beyond dated &amp; need upgrading ASAP. No hot water in the shower, the drain doesn’t work in the shower nor the sink. Just over all filth. Not worth the price per night at all. Won’t be returning. Bath has been draining in picture below for 25+ minutes just after a shower. The mini fridge doesn’t even work to keep snack cool. Just one thing after another.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r588885896-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588885896</t>
+  </si>
+  <si>
+    <t>Certainly not what I expected</t>
+  </si>
+  <si>
+    <t>Carpets were dirty and stained in the rooms and the furniture appeared to be obtained from a resale shop.  The fabric headboard was torn and the light switches were lose and you had to play with them to keep them on.  The bathtub needed clorox.The hotel has no restaurant for breakfast before meetings.  There is a Starbucks, but the products sold were old and dried out and none of the usual Starbucks alternative foods were available.My office paid $141.00 per night and that was a seminar rate.  It was a significant rip off.  I would not personally go back to this hotel or recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r588596656-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588596656</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Not as good as I expected</t>
+  </si>
+  <si>
+    <t>The food was good - tasty, interesting options for conference food. a As a conference attendee, I expect temperature fluctuations from room to room, but it was beyond what I normally expect.  There were some rooms that seemed to have a smell like the prior event was full of heavy smokers.  Numerous technical problems.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r587590469-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>587590469</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>This hotel is not at all what you would expect at the price point. The room and amenities had numerous problems, and the staff was curt and unhelpful. The toilet barely flushed and the ventilation fan in the bathroom did not work. The AC did not cool the room. I put in maintenance requests several times and no one showed up. The bathroom was filthy, hair on the floor and ceiling, the fridge was full of crumbs and food waste. Housekeeping did not replace towels, and it took three phone calls over six hours to get them replaced. The coffee creamer was so old it was congealed. I tried to escape the room by relaxing at the pool, but they had someone pressure washing the fence and spraying all the guests with water so I had to leave. The management here must be atrocious to have so many issues. Absolutely would recommend against booking this for business or personal travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is not at all what you would expect at the price point. The room and amenities had numerous problems, and the staff was curt and unhelpful. The toilet barely flushed and the ventilation fan in the bathroom did not work. The AC did not cool the room. I put in maintenance requests several times and no one showed up. The bathroom was filthy, hair on the floor and ceiling, the fridge was full of crumbs and food waste. Housekeeping did not replace towels, and it took three phone calls over six hours to get them replaced. The coffee creamer was so old it was congealed. I tried to escape the room by relaxing at the pool, but they had someone pressure washing the fence and spraying all the guests with water so I had to leave. The management here must be atrocious to have so many issues. Absolutely would recommend against booking this for business or personal travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r587273899-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>587273899</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>A pleasant stay</t>
+  </si>
+  <si>
+    <t>A big hotel with many business guests, the hotel however made me feel welcomed. They have polite and helpful staff and there was never a queue for the front desk. The elevators were different, possibly not all were working but it was a long wait in the morning for breakfast.  My room was spacious and clean, despite being near busy roads, I was not disturbed by the noise of passing traffic.  The buffet breakfast was good, plenty of fresh fruit and the usual scrambled eggs and meat options.  Shops are close by, but at a 105f I stayed inside with the ac!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r587264053-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109412</t>
-  </si>
-  <si>
     <t>587264053</t>
   </si>
   <si>
-    <t>06/13/2018</t>
-  </si>
-  <si>
     <t>Welcome to the Marriott Family</t>
   </si>
   <si>
     <t>I am a Marriott person and have been for the last 35 years.As a Marriott person, I am accustomed to Marriott consistency, efficiency in check-in, comfortable rooms and great service.This was pretty much my experience when I checked-in to this property yesterday.What struck me about this property is that the Management Team is extremely visible and engaging with their customers. I met a few of them during my one night stay.Tiffany on the Sales Team approached me during my departure wanting to hear about my experience at the hotel. I told her I had a very good stay and looked forward to returning when I am back in the area.I am sure it will not take long before the reviews of this property reach the excellent level.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>I am a Marriott person and have been for the last 35 years.As a Marriott person, I am accustomed to Marriott consistency, efficiency in check-in, comfortable rooms and great service.This was pretty much my experience when I checked-in to this property yesterday.What struck me about this property is that the Management Team is extremely visible and engaging with their customers. I met a few of them during my one night stay.Tiffany on the Sales Team approached me during my departure wanting to hear about my experience at the hotel. I told her I had a very good stay and looked forward to returning when I am back in the area.I am sure it will not take long before the reviews of this property reach the excellent level.More</t>
   </si>
   <si>
-    <t>nolanherefords</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r586030550-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -199,15 +526,6 @@
   </si>
   <si>
     <t>If you are a shopper or in Dallas for fun, this hotel is very convenient, safe and near most attractions.  Rooms are good nice as is the bar area.  Hotel staff is very helpful and parking is safe as well.  Stayed at this hotel atleast 8 times in last 15 years.</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>VARays</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r585668997-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
@@ -254,7 +572,34 @@
 	13. Take elevator back to front...I'm a Marriot Gold Member, which means I stay at least 50 nights per year.  I have never seen such a comedy of errors.  I'm providing feedback because this situation is dangerous.	1. Arrived at 8:55 PM after a mobile check and room not ready!!	2. Take elevator to room after about 15 minutes.	3. Go to room, no remote.  Wait for engineer to arrive, TV ultimately does not work.	4. Take elevator to front desk to get request another room, will have to wait for new room to be cleaned.  Ok, I can workout at gym. 	5. Take elevator to fifth floor to room with broken TV to change for gym and leave my luggage.	6. Take elevator to gym.   Work out for about an hour.	7. Take elevator to Front desk to get key to new room.	8. Take elevator to 5th floor to get my stuff, room key does not work.  	9. Take elevator to front desk to get another key.	10. Take elevator back up to 5th floor get my stuff.	11. Take elevator to 7th floor to new room.	12. HERE'S THE DANGEROUS SITUATION:  Front desk gave me a key to a room occupied by another guest!!  Imagine if you were in a room and an unknown person comes in…..  This was also the point that I reminded the front desk that no one apologized for any of this.  	13. Take elevator back to front desk, seems like they already knew I was coming back.	14. Take elevator back to 5th floor with broken TV because I didn't want to wait another 30 minutes.  	15. Spend fifteen minutes typing up my experience because I was upset about the run around and leadership should know about front desk giving key to an occupied room.It's now 11:00 PM…  Good night.More</t>
   </si>
   <si>
-    <t>Craig D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r585021633-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585021633</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Should not be a Renaissance. Poor AC</t>
+  </si>
+  <si>
+    <t>This is not up to par with other Renaissance properties. There is no AC in the hallways and elevator, which is really uncomfortable but luckily the room AC worked so we felt a huge gush of cool air as soon as opening the door to our room. The rooms are okay but pretty dated and most of the light fixtures/plumbing fixtures are rusted or very worn. Supposedly this hotel was recently renovated, but I couldn't see where.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r584811970-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584811970</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn’t think it was possible to age 20 years in one year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whoever took this ship over is not only asleep at the wheel but may have angered a voodoo priestess that has cursed the hotel. I stayed here one year ago and everything was fine, this year the elevators were busted, most of the AC wasn’t working throughout hotel, and room service is now served in boxes. Looking on the bright side though, with hearing stories of people being trapped in elevators I did get my cardio in by doing stairs everyday (was on 15th floor) </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r580108758-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
@@ -275,9 +620,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t>podrozniczka60</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r579748294-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -296,12 +638,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>joshstevens91</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r578845207-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -317,10 +653,40 @@
     <t>We stayed at this hotel for 4 nights and 3 other hotels in other cities for one night each on this trip. The other hotels were 2 star, just to get some sleep along the way. I would stay at any of those other 3 again. I wouldn't stay here again under any circumstances. Go anywhere else and you will be happier. If you do find yourself in this hotel, expect additional unwarranted charges on your credit card. And once you find those charges call their listed phone number and ask for the accounting department, any other approach will just waste your time</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>scottboring</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r577758732-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>577758732</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>New Concierge (navigator) concept is confusing and doesn't make sense</t>
+  </si>
+  <si>
+    <t>The hotel used to have a beautiful concierge desk that was great for guest interactions and planning a fun day. Now the desk is gone and their is no place to sit down with the concierge. They carry around ipads but it so awkward and people seem to be really uncomfortable when the navigators approach guests randomly to ask if they have dinner plans, it just seems so weird, aggressive and intrusive. If I want to talk to a concierge (which I usually do) I will approach them at their desk when I am ready and if I want to. All I can say is the old concierge desk and style of doing things was much less awkward and intrusive and that if something is not broke don't fix it! The navigators were very nice I love all 3 of them don't get me wrong, but the concierge desk concept definitely should be brought back!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel used to have a beautiful concierge desk that was great for guest interactions and planning a fun day. Now the desk is gone and their is no place to sit down with the concierge. They carry around ipads but it so awkward and people seem to be really uncomfortable when the navigators approach guests randomly to ask if they have dinner plans, it just seems so weird, aggressive and intrusive. If I want to talk to a concierge (which I usually do) I will approach them at their desk when I am ready and if I want to. All I can say is the old concierge desk and style of doing things was much less awkward and intrusive and that if something is not broke don't fix it! The navigators were very nice I love all 3 of them don't get me wrong, but the concierge desk concept definitely should be brought back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r575536767-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>575536767</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>I was disappointed with this hotel from the minute I entered.  I am a platinum level at Marriott,  I ask for a upgrade but they had none, this was at 12 PM. Hotel was sold out they said. They had no club level I was told but found out later they do have one just under construction.  They could of said that on the website.  I also found out it was a  intercontinental two months ago, they should of remodel before opening. They offer me breakfast but not the other benefits you normally get as a platinum. The room was a king bed but it was not as prop and clean for a Renaissance. The lobby was nice but that's it. The elevator's were very slow. The toilet and sink was having issues with drainage.  Like I said I do not recommend unless they do a makeover.  I paid $275 for the night, was not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was disappointed with this hotel from the minute I entered.  I am a platinum level at Marriott,  I ask for a upgrade but they had none, this was at 12 PM. Hotel was sold out they said. They had no club level I was told but found out later they do have one just under construction.  They could of said that on the website.  I also found out it was a  intercontinental two months ago, they should of remodel before opening. They offer me breakfast but not the other benefits you normally get as a platinum. The room was a king bed but it was not as prop and clean for a Renaissance. The lobby was nice but that's it. The elevator's were very slow. The toilet and sink was having issues with drainage.  Like I said I do not recommend unless they do a makeover.  I paid $275 for the night, was not worth it.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r574014280-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
@@ -338,9 +704,6 @@
     <t>Was a better hotel until Renaissance purchase them a few months ago.  Understaffed now, rooms not clean, they gave me a key and when I got to the room, someone else was in the room.  Front desk blamed new ownership -</t>
   </si>
   <si>
-    <t>Stephen P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r573601929-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -356,9 +719,6 @@
     <t>This hotel was clean.  The lobby lounge was nice.  The rooms were a bit dated.  The elevators were slow.  The only food I had was catered breakfasts, lunch and a cocktail hour with small bites.  The breakfast was lame.  The lunch was what I'd expect at a cheaper hotel as was the cocktail small bites.  I guess if it was called Renaissance I would have thought it met the chain's standards.</t>
   </si>
   <si>
-    <t>theNamssob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r569203840-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +732,24 @@
   </si>
   <si>
     <t>Marriott just bought this property.  It is NOT up to typical Marriott standards.  I realize it's a brand new acquisition, but even then, the hotel needs a lot of work.Upon arrival, I hand my "Marriott Rewards" card to the hotel clerk, along with my credit card.  She proceeds to ask me, in all seriousness, "Are you a Marriott Rewards member?"  Seriously?  DO YOU READ?This is not a "horrible" hotel, but I would rather stay somewhere else. The Gym needs updating.A few positives:  Parking is good, and included a FREE option.  Showers are high pressure, and easily get hot.  The AC units in the rooms actually work well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109412-r568665439-Renaissance_Dallas_Addison_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>568665439</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Needs complete overhaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff at the front desk were very nice but that’s the end of the compliments.  Had a two story suite.  A/C in master bedroom not working.  Try to call downstairs and...  no phones in suite work.  Had to walk down hall to call downstairs for anything including following up with room service several times.  I know renaissance just took over a few weeks ago, but this was an embarrassment for the Marriott chain.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
 </sst>
 </file>
@@ -876,91 +1254,83 @@
       <c r="A2" t="n">
         <v>10194</v>
       </c>
-      <c r="B2" t="n">
-        <v>162735</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10194</v>
       </c>
-      <c r="B3" t="n">
-        <v>162736</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -975,20 +1345,22 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -996,189 +1368,179 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10194</v>
       </c>
-      <c r="B4" t="n">
-        <v>162737</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10194</v>
       </c>
-      <c r="B5" t="n">
-        <v>17414</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10194</v>
       </c>
-      <c r="B6" t="n">
-        <v>162738</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1189,57 +1551,57 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10194</v>
       </c>
-      <c r="B7" t="n">
-        <v>162739</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1250,48 +1612,48 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10194</v>
       </c>
-      <c r="B8" t="n">
-        <v>162740</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1300,149 +1662,143 @@
         <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10194</v>
       </c>
-      <c r="B9" t="n">
-        <v>31643</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10194</v>
       </c>
-      <c r="B10" t="n">
-        <v>162741</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1451,10 +1807,1279 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" t="s">
+        <v>163</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10194</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>235</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
